--- a/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D964F3-1561-4624-9F0E-B57E9465CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93E8CB7-7353-4C91-A096-CE8CBB6AD4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE579719-5F2D-4E88-A8B7-6A9FE338B6E9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25FF4D0A-8022-4F59-9F69-5E34194C902F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="528">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1564 +71,1552 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,17%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2043,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5075CE4-B9FA-425E-A2C9-98A23FD9FA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE5D13-CAD3-46E8-AD38-33898AA905D9}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2560,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2716,13 @@
         <v>162959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2743,13 +2731,13 @@
         <v>134890</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>459</v>
@@ -2758,18 +2746,18 @@
         <v>297849</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2781,13 +2769,13 @@
         <v>123360</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -2796,13 +2784,13 @@
         <v>90512</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -2811,13 +2799,13 @@
         <v>213872</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2820,13 @@
         <v>73993</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2847,13 +2835,13 @@
         <v>38912</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -2862,13 +2850,13 @@
         <v>112905</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,10 +2874,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2898,13 +2886,13 @@
         <v>28222</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2913,13 +2901,13 @@
         <v>53262</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2922,13 @@
         <v>14002</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2949,13 +2937,13 @@
         <v>12344</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2964,13 +2952,13 @@
         <v>26346</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2973,13 @@
         <v>5386</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3000,13 +2988,13 @@
         <v>4805</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3015,13 +3003,13 @@
         <v>10191</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3024,13 @@
         <v>1411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3051,13 +3039,13 @@
         <v>801</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3066,13 +3054,13 @@
         <v>2212</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3075,13 @@
         <v>1243</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3102,13 +3090,13 @@
         <v>742</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3117,13 +3105,13 @@
         <v>1984</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3141,13 @@
         <v>1102</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3168,13 +3156,13 @@
         <v>1102</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3192,13 @@
         <v>795</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3219,13 +3207,13 @@
         <v>795</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3243,7 @@
         <v>874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>50</v>
@@ -3306,7 +3294,7 @@
         <v>804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>50</v>
@@ -3324,10 +3312,10 @@
         <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3330,13 @@
         <v>247330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>215</v>
@@ -3357,13 +3345,13 @@
         <v>179914</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>388</v>
@@ -3372,18 +3360,18 @@
         <v>427244</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3395,13 +3383,13 @@
         <v>76840</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -3410,13 +3398,13 @@
         <v>57301</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -3425,13 +3413,13 @@
         <v>134141</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3434,13 @@
         <v>30766</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -3461,13 +3449,13 @@
         <v>25975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -3476,13 +3464,13 @@
         <v>56741</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3485,13 @@
         <v>29815</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3512,13 +3500,13 @@
         <v>23493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -3527,13 +3515,13 @@
         <v>53307</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3536,13 @@
         <v>4826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3563,13 +3551,13 @@
         <v>9247</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3578,13 +3566,13 @@
         <v>14072</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3587,13 @@
         <v>2583</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3614,13 +3602,13 @@
         <v>4370</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3629,13 +3617,13 @@
         <v>6953</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3638,13 @@
         <v>1809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -3665,13 +3653,13 @@
         <v>2721</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -3680,13 +3668,13 @@
         <v>4530</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3695,7 @@
         <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3716,13 +3704,13 @@
         <v>670</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3731,13 +3719,13 @@
         <v>670</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3740,13 @@
         <v>2721</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3773,7 +3761,7 @@
         <v>55</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3782,13 +3770,13 @@
         <v>2721</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3797,7 @@
         <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3818,7 +3806,7 @@
         <v>3342</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
@@ -3833,10 +3821,10 @@
         <v>3342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>197</v>
@@ -3854,13 +3842,13 @@
         <v>878</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3869,7 +3857,7 @@
         <v>1275</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>50</v>
@@ -3905,7 +3893,7 @@
         <v>926</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>50</v>
@@ -3926,7 +3914,7 @@
         <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3956,13 +3944,13 @@
         <v>151163</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>169</v>
@@ -3971,13 +3959,13 @@
         <v>128393</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>321</v>
@@ -3986,13 +3974,13 @@
         <v>279556</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4099,13 @@
         <v>62618</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -4126,13 +4114,13 @@
         <v>63830</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4141,13 +4129,13 @@
         <v>126448</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4150,13 @@
         <v>16753</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H43" s="7">
         <v>16</v>
@@ -4177,13 +4165,13 @@
         <v>12366</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M43" s="7">
         <v>25</v>
@@ -4192,13 +4180,13 @@
         <v>29119</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>9505</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -4228,13 +4216,13 @@
         <v>4910</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -4243,13 +4231,13 @@
         <v>14415</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>5520</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -4279,13 +4267,13 @@
         <v>8108</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
@@ -4294,13 +4282,13 @@
         <v>13629</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4309,7 @@
         <v>55</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -4330,13 +4318,13 @@
         <v>1225</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4351,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4360,7 @@
         <v>55</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -4381,13 +4369,13 @@
         <v>2250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -4396,13 +4384,13 @@
         <v>2250</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4411,7 @@
         <v>55</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4432,13 +4420,13 @@
         <v>678</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -4447,13 +4435,13 @@
         <v>678</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,7 +4462,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4504,7 +4492,7 @@
         <v>55</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4513,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4555,7 +4543,7 @@
         <v>55</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4558,13 @@
         <v>171183</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>201</v>
@@ -4585,13 +4573,13 @@
         <v>194545</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>326</v>
@@ -4600,18 +4588,18 @@
         <v>365728</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4623,13 +4611,13 @@
         <v>25627</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H52" s="7">
         <v>32</v>
@@ -4638,13 +4626,13 @@
         <v>20741</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M52" s="7">
         <v>63</v>
@@ -4653,13 +4641,13 @@
         <v>46368</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4662,13 @@
         <v>37489</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H53" s="7">
         <v>58</v>
@@ -4689,13 +4677,13 @@
         <v>30535</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M53" s="7">
         <v>110</v>
@@ -4704,13 +4692,13 @@
         <v>68024</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4713,13 @@
         <v>45978</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H54" s="7">
         <v>120</v>
@@ -4740,13 +4728,13 @@
         <v>55509</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M54" s="7">
         <v>184</v>
@@ -4755,13 +4743,13 @@
         <v>101487</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4764,13 @@
         <v>11706</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
@@ -4791,13 +4779,13 @@
         <v>8482</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M55" s="7">
         <v>39</v>
@@ -4806,13 +4794,13 @@
         <v>20188</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4815,13 @@
         <v>4227</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H56" s="7">
         <v>6</v>
@@ -4842,13 +4830,13 @@
         <v>2417</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
@@ -4857,13 +4845,13 @@
         <v>6644</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4872,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4893,13 +4881,13 @@
         <v>159</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4908,13 +4896,13 @@
         <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4923,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4950,7 +4938,7 @@
         <v>55</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4965,7 +4953,7 @@
         <v>55</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4974,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -5001,7 +4989,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -5016,7 +5004,7 @@
         <v>55</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5052,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -5067,7 +5055,7 @@
         <v>55</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5076,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5103,7 +5091,7 @@
         <v>55</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5118,7 +5106,7 @@
         <v>55</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5127,7 @@
         <v>55</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5154,7 +5142,7 @@
         <v>55</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5169,7 +5157,7 @@
         <v>55</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5172,13 @@
         <v>125027</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" s="7">
         <v>239</v>
@@ -5199,13 +5187,13 @@
         <v>117843</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M63" s="7">
         <v>410</v>
@@ -5214,18 +5202,18 @@
         <v>242870</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -5237,13 +5225,13 @@
         <v>65021</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H64" s="7">
         <v>58</v>
@@ -5252,13 +5240,13 @@
         <v>43672</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M64" s="7">
         <v>129</v>
@@ -5267,13 +5255,13 @@
         <v>108693</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5276,13 @@
         <v>32624</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H65" s="7">
         <v>26</v>
@@ -5303,13 +5291,13 @@
         <v>19301</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M65" s="7">
         <v>63</v>
@@ -5318,13 +5306,13 @@
         <v>51925</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5327,13 @@
         <v>20248</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H66" s="7">
         <v>18</v>
@@ -5354,13 +5342,13 @@
         <v>12024</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M66" s="7">
         <v>40</v>
@@ -5369,13 +5357,13 @@
         <v>32272</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5378,13 @@
         <v>6413</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H67" s="7">
         <v>9</v>
@@ -5405,13 +5393,13 @@
         <v>6746</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M67" s="7">
         <v>17</v>
@@ -5420,13 +5408,13 @@
         <v>13159</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="Q67" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5429,13 @@
         <v>5982</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -5456,13 +5444,13 @@
         <v>4582</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="M68" s="7">
         <v>14</v>
@@ -5471,13 +5459,13 @@
         <v>10564</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5480,13 @@
         <v>3371</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H69" s="7">
         <v>5</v>
@@ -5507,13 +5495,13 @@
         <v>2934</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M69" s="7">
         <v>9</v>
@@ -5522,13 +5510,13 @@
         <v>6305</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5531,13 @@
         <v>1988</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>367</v>
+        <v>51</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5558,13 +5546,13 @@
         <v>1148</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
@@ -5573,13 +5561,13 @@
         <v>3135</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>371</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5582,13 @@
         <v>160</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -5609,13 +5597,13 @@
         <v>1967</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
@@ -5624,13 +5612,13 @@
         <v>2127</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5639,7 @@
         <v>55</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5660,13 +5648,13 @@
         <v>571</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -5675,13 +5663,13 @@
         <v>571</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5684,13 @@
         <v>1766</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5717,7 +5705,7 @@
         <v>55</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5726,13 +5714,13 @@
         <v>1766</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5735,13 @@
         <v>1097</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5768,7 +5756,7 @@
         <v>55</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5777,13 +5765,13 @@
         <v>1097</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>382</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5786,13 @@
         <v>138669</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H75" s="7">
         <v>129</v>
@@ -5813,13 +5801,13 @@
         <v>92945</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M75" s="7">
         <v>284</v>
@@ -5828,18 +5816,18 @@
         <v>231614</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5851,13 +5839,13 @@
         <v>102954</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H76" s="7">
         <v>134</v>
@@ -5866,13 +5854,13 @@
         <v>104996</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M76" s="7">
         <v>232</v>
@@ -5881,13 +5869,13 @@
         <v>207950</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5890,13 @@
         <v>96379</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H77" s="7">
         <v>128</v>
@@ -5917,13 +5905,13 @@
         <v>89100</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M77" s="7">
         <v>222</v>
@@ -5932,13 +5920,13 @@
         <v>185479</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5941,13 @@
         <v>105380</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H78" s="7">
         <v>155</v>
@@ -5968,13 +5956,13 @@
         <v>108506</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M78" s="7">
         <v>251</v>
@@ -5983,13 +5971,13 @@
         <v>213885</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +5992,13 @@
         <v>26815</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H79" s="7">
         <v>22</v>
@@ -6019,13 +6007,13 @@
         <v>17286</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M79" s="7">
         <v>45</v>
@@ -6034,13 +6022,13 @@
         <v>44101</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6043,13 @@
         <v>4469</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>53</v>
+        <v>412</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H80" s="7">
         <v>6</v>
@@ -6070,13 +6058,13 @@
         <v>4813</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M80" s="7">
         <v>9</v>
@@ -6085,13 +6073,13 @@
         <v>9283</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>103</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6100,7 @@
         <v>55</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
@@ -6121,13 +6109,13 @@
         <v>1632</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -6136,13 +6124,13 @@
         <v>1632</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6151,7 @@
         <v>50</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>107</v>
+        <v>372</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -6178,7 +6166,7 @@
         <v>50</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M82" s="7">
         <v>2</v>
@@ -6187,13 +6175,13 @@
         <v>1706</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>425</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6202,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -6223,13 +6211,13 @@
         <v>711</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -6238,13 +6226,13 @@
         <v>711</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6253,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6295,7 +6283,7 @@
         <v>55</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6304,7 @@
         <v>55</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -6346,7 +6334,7 @@
         <v>55</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6355,7 @@
         <v>55</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -6397,7 +6385,7 @@
         <v>55</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6400,13 @@
         <v>337037</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H87" s="7">
         <v>450</v>
@@ -6427,13 +6415,13 @@
         <v>327711</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M87" s="7">
         <v>765</v>
@@ -6442,18 +6430,18 @@
         <v>664748</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6465,13 +6453,13 @@
         <v>226962</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H88" s="7">
         <v>139</v>
@@ -6480,13 +6468,13 @@
         <v>118953</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M88" s="7">
         <v>330</v>
@@ -6495,13 +6483,13 @@
         <v>345914</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6504,13 @@
         <v>150686</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H89" s="7">
         <v>92</v>
@@ -6531,13 +6519,13 @@
         <v>83930</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M89" s="7">
         <v>174</v>
@@ -6546,13 +6534,13 @@
         <v>234615</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6555,13 @@
         <v>80580</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H90" s="7">
         <v>81</v>
@@ -6582,13 +6570,13 @@
         <v>67710</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M90" s="7">
         <v>146</v>
@@ -6597,13 +6585,13 @@
         <v>148290</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6606,13 @@
         <v>27806</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>456</v>
+        <v>246</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H91" s="7">
         <v>30</v>
@@ -6633,13 +6621,13 @@
         <v>25190</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M91" s="7">
         <v>58</v>
@@ -6648,13 +6636,13 @@
         <v>52996</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6657,13 @@
         <v>16836</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>463</v>
+        <v>202</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="H92" s="7">
         <v>18</v>
@@ -6684,13 +6672,13 @@
         <v>13762</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>54</v>
+        <v>462</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M92" s="7">
         <v>34</v>
@@ -6699,13 +6687,13 @@
         <v>30598</v>
       </c>
       <c r="O92" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q92" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6708,13 @@
         <v>740</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H93" s="7">
         <v>13</v>
@@ -6735,13 +6723,13 @@
         <v>16336</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" s="7">
         <v>14</v>
@@ -6750,13 +6738,13 @@
         <v>17076</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,13 +6759,13 @@
         <v>1101</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>427</v>
+        <v>189</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -6786,7 +6774,7 @@
         <v>2178</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>471</v>
+        <v>184</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>128</v>
@@ -6807,7 +6795,7 @@
         <v>474</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6816,7 @@
         <v>55</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6843,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -6858,7 +6846,7 @@
         <v>55</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,7 +6867,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -6894,7 +6882,7 @@
         <v>55</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6909,7 +6897,7 @@
         <v>55</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6918,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -6945,7 +6933,7 @@
         <v>55</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M97" s="7">
         <v>0</v>
@@ -6960,7 +6948,7 @@
         <v>55</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +6969,7 @@
         <v>55</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -6996,7 +6984,7 @@
         <v>55</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -7011,7 +6999,7 @@
         <v>55</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7014,13 @@
         <v>504710</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H99" s="7">
         <v>376</v>
@@ -7041,13 +7029,13 @@
         <v>328058</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M99" s="7">
         <v>760</v>
@@ -7056,13 +7044,13 @@
         <v>832768</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7067,13 @@
         <v>654994</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H100" s="7">
         <v>594</v>
@@ -7094,13 +7082,13 @@
         <v>482832</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M100" s="7">
         <v>1183</v>
@@ -7109,13 +7097,13 @@
         <v>1137826</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7118,13 @@
         <v>525163</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H101" s="7">
         <v>520</v>
@@ -7145,13 +7133,13 @@
         <v>390291</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M101" s="7">
         <v>964</v>
@@ -7160,13 +7148,13 @@
         <v>915453</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,7 +7175,7 @@
         <v>495</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>496</v>
+        <v>334</v>
       </c>
       <c r="H102" s="7">
         <v>647</v>
@@ -7196,13 +7184,13 @@
         <v>432100</v>
       </c>
       <c r="J102" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="L102" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M102" s="7">
         <v>1099</v>
@@ -7211,13 +7199,13 @@
         <v>893741</v>
       </c>
       <c r="O102" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P102" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P102" s="7" t="s">
-        <v>501</v>
-      </c>
       <c r="Q102" s="7" t="s">
-        <v>502</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7220,13 @@
         <v>115082</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H103" s="7">
         <v>153</v>
@@ -7247,13 +7235,13 @@
         <v>105307</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M103" s="7">
         <v>265</v>
@@ -7262,13 +7250,13 @@
         <v>220389</v>
       </c>
       <c r="O103" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q103" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q103" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7271,13 @@
         <v>51836</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>511</v>
+        <v>197</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>243</v>
+        <v>509</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>512</v>
+        <v>131</v>
       </c>
       <c r="H104" s="7">
         <v>55</v>
@@ -7298,13 +7286,13 @@
         <v>40078</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M104" s="7">
         <v>106</v>
@@ -7313,13 +7301,13 @@
         <v>91914</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7322,13 @@
         <v>12852</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>516</v>
+        <v>259</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="H105" s="7">
         <v>36</v>
@@ -7349,13 +7337,13 @@
         <v>32692</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>517</v>
+        <v>60</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>518</v>
+        <v>14</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M105" s="7">
         <v>48</v>
@@ -7364,13 +7352,13 @@
         <v>45544</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>520</v>
+        <v>129</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>425</v>
+        <v>56</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>202</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7373,13 @@
         <v>5371</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="H106" s="7">
         <v>10</v>
@@ -7400,13 +7388,13 @@
         <v>6628</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>172</v>
+        <v>518</v>
       </c>
       <c r="M106" s="7">
         <v>15</v>
@@ -7415,13 +7403,13 @@
         <v>12000</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>269</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7424,13 @@
         <v>3578</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="H107" s="7">
         <v>9</v>
@@ -7451,13 +7439,13 @@
         <v>6030</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>524</v>
+        <v>366</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="M107" s="7">
         <v>14</v>
@@ -7466,13 +7454,13 @@
         <v>9609</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,7 +7481,7 @@
         <v>55</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H108" s="7">
         <v>8</v>
@@ -7502,13 +7490,13 @@
         <v>5386</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="M108" s="7">
         <v>8</v>
@@ -7517,10 +7505,10 @@
         <v>5386</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>525</v>
+        <v>313</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>49</v>
@@ -7538,13 +7526,13 @@
         <v>2644</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>473</v>
+        <v>58</v>
       </c>
       <c r="H109" s="7">
         <v>3</v>
@@ -7553,13 +7541,13 @@
         <v>2149</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="M109" s="7">
         <v>6</v>
@@ -7568,13 +7556,13 @@
         <v>4793</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>528</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7577,13 @@
         <v>4917</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>525</v>
+        <v>313</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>120</v>
+        <v>526</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -7604,13 +7592,13 @@
         <v>804</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>521</v>
+        <v>423</v>
       </c>
       <c r="M110" s="7">
         <v>5</v>
@@ -7619,13 +7607,13 @@
         <v>5721</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>530</v>
+        <v>262</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>516</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7628,13 @@
         <v>1838078</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H111" s="7">
         <v>2036</v>
@@ -7655,13 +7643,13 @@
         <v>1504298</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M111" s="7">
         <v>3713</v>
@@ -7670,18 +7658,18 @@
         <v>3342376</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93E8CB7-7353-4C91-A096-CE8CBB6AD4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A287230-437A-490B-AB4F-9D3CDAB02478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25FF4D0A-8022-4F59-9F69-5E34194C902F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FED2C30-3909-4FD4-B563-2375A3D5EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -2031,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE5D13-CAD3-46E8-AD38-33898AA905D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C5B5A-A802-405F-8A79-6AA5864D17F8}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A287230-437A-490B-AB4F-9D3CDAB02478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86E0351-7633-4BCE-810A-582D4F56E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FED2C30-3909-4FD4-B563-2375A3D5EB46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4481757-7001-4C26-A485-7402F0E64BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="532">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1552 +71,1564 @@
     <t>2,8%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2031,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762C5B5A-A802-405F-8A79-6AA5864D17F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719FEDE3-2FE5-47EB-878A-55B28FD41732}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2548,7 +2560,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2728,13 @@
         <v>162959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2731,13 +2743,13 @@
         <v>134890</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M15" s="7">
         <v>459</v>
@@ -2746,18 +2758,18 @@
         <v>297849</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2769,13 +2781,13 @@
         <v>123360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -2784,13 +2796,13 @@
         <v>90512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -2799,13 +2811,13 @@
         <v>213872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2832,13 @@
         <v>73993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2835,13 +2847,13 @@
         <v>38912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -2850,13 +2862,13 @@
         <v>112905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,10 +2886,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2886,13 +2898,13 @@
         <v>28222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2901,13 +2913,13 @@
         <v>53262</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2934,13 @@
         <v>14002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2937,13 +2949,13 @@
         <v>12344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2952,13 +2964,13 @@
         <v>26346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2985,13 @@
         <v>5386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2988,13 +3000,13 @@
         <v>4805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3003,13 +3015,13 @@
         <v>10191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3036,13 @@
         <v>1411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3039,13 +3051,13 @@
         <v>801</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3054,13 +3066,13 @@
         <v>2212</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3087,13 @@
         <v>1243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3090,13 +3102,13 @@
         <v>742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3105,13 +3117,13 @@
         <v>1984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>1102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3156,13 +3168,13 @@
         <v>1102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3204,13 @@
         <v>795</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3207,13 +3219,13 @@
         <v>795</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3255,7 @@
         <v>874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>50</v>
@@ -3294,7 +3306,7 @@
         <v>804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>50</v>
@@ -3312,10 +3324,10 @@
         <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3342,13 @@
         <v>247330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27" s="7">
         <v>215</v>
@@ -3345,13 +3357,13 @@
         <v>179914</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>388</v>
@@ -3360,18 +3372,18 @@
         <v>427244</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3383,13 +3395,13 @@
         <v>76840</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -3398,13 +3410,13 @@
         <v>57301</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -3413,13 +3425,13 @@
         <v>134141</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3446,13 @@
         <v>30766</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -3449,13 +3461,13 @@
         <v>25975</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -3464,13 +3476,13 @@
         <v>56741</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3497,13 @@
         <v>29815</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -3500,13 +3512,13 @@
         <v>23493</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -3515,13 +3527,13 @@
         <v>53307</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3548,13 @@
         <v>4826</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3551,13 +3563,13 @@
         <v>9247</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3566,13 +3578,13 @@
         <v>14072</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3599,13 @@
         <v>2583</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3602,13 +3614,13 @@
         <v>4370</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3617,13 +3629,13 @@
         <v>6953</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3650,13 @@
         <v>1809</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -3653,13 +3665,13 @@
         <v>2721</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -3668,13 +3680,13 @@
         <v>4530</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3707,7 @@
         <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3704,13 +3716,13 @@
         <v>670</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3719,13 +3731,13 @@
         <v>670</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3752,13 @@
         <v>2721</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3761,7 +3773,7 @@
         <v>55</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3770,13 +3782,13 @@
         <v>2721</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,7 +3809,7 @@
         <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3806,7 +3818,7 @@
         <v>3342</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
@@ -3821,10 +3833,10 @@
         <v>3342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>197</v>
@@ -3842,13 +3854,13 @@
         <v>878</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3857,7 +3869,7 @@
         <v>1275</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>50</v>
@@ -3893,7 +3905,7 @@
         <v>926</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>50</v>
@@ -3914,7 +3926,7 @@
         <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3944,13 +3956,13 @@
         <v>151163</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" s="7">
         <v>169</v>
@@ -3959,13 +3971,13 @@
         <v>128393</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M39" s="7">
         <v>321</v>
@@ -3974,13 +3986,13 @@
         <v>279556</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4111,13 @@
         <v>62618</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -4114,13 +4126,13 @@
         <v>63830</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4129,13 +4141,13 @@
         <v>126448</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4162,13 @@
         <v>16753</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H43" s="7">
         <v>16</v>
@@ -4165,13 +4177,13 @@
         <v>12366</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M43" s="7">
         <v>25</v>
@@ -4180,13 +4192,13 @@
         <v>29119</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4213,13 @@
         <v>9505</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -4216,13 +4228,13 @@
         <v>4910</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -4231,13 +4243,13 @@
         <v>14415</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4264,13 @@
         <v>5520</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -4267,13 +4279,13 @@
         <v>8108</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
@@ -4282,13 +4294,13 @@
         <v>13629</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4321,7 @@
         <v>55</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -4318,13 +4330,13 @@
         <v>1225</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4339,7 +4351,7 @@
         <v>50</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4372,7 @@
         <v>55</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -4369,13 +4381,13 @@
         <v>2250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -4384,13 +4396,13 @@
         <v>2250</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4423,7 @@
         <v>55</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -4420,13 +4432,13 @@
         <v>678</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -4435,13 +4447,13 @@
         <v>678</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4474,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4492,7 +4504,7 @@
         <v>55</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4525,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4543,7 +4555,7 @@
         <v>55</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4570,13 @@
         <v>171183</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H51" s="7">
         <v>201</v>
@@ -4573,13 +4585,13 @@
         <v>194545</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M51" s="7">
         <v>326</v>
@@ -4588,18 +4600,18 @@
         <v>365728</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4611,13 +4623,13 @@
         <v>25627</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H52" s="7">
         <v>32</v>
@@ -4626,13 +4638,13 @@
         <v>20741</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M52" s="7">
         <v>63</v>
@@ -4641,13 +4653,13 @@
         <v>46368</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4674,13 @@
         <v>37489</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H53" s="7">
         <v>58</v>
@@ -4677,13 +4689,13 @@
         <v>30535</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M53" s="7">
         <v>110</v>
@@ -4692,13 +4704,13 @@
         <v>68024</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4725,13 @@
         <v>45978</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H54" s="7">
         <v>120</v>
@@ -4728,13 +4740,13 @@
         <v>55509</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M54" s="7">
         <v>184</v>
@@ -4743,13 +4755,13 @@
         <v>101487</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4776,13 @@
         <v>11706</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
@@ -4779,13 +4791,13 @@
         <v>8482</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M55" s="7">
         <v>39</v>
@@ -4794,13 +4806,13 @@
         <v>20188</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4827,13 @@
         <v>4227</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H56" s="7">
         <v>6</v>
@@ -4830,13 +4842,13 @@
         <v>2417</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
@@ -4845,13 +4857,13 @@
         <v>6644</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4884,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4881,13 +4893,13 @@
         <v>159</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4896,13 +4908,13 @@
         <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4935,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4938,7 +4950,7 @@
         <v>55</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4953,7 +4965,7 @@
         <v>55</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,7 +4986,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4989,7 +5001,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -5004,7 +5016,7 @@
         <v>55</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,7 +5037,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5040,7 +5052,7 @@
         <v>55</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -5055,7 +5067,7 @@
         <v>55</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5088,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5091,7 +5103,7 @@
         <v>55</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5106,7 +5118,7 @@
         <v>55</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5139,7 @@
         <v>55</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5142,7 +5154,7 @@
         <v>55</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5157,7 +5169,7 @@
         <v>55</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5184,13 @@
         <v>125027</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H63" s="7">
         <v>239</v>
@@ -5187,13 +5199,13 @@
         <v>117843</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M63" s="7">
         <v>410</v>
@@ -5202,18 +5214,18 @@
         <v>242870</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -5225,13 +5237,13 @@
         <v>65021</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H64" s="7">
         <v>58</v>
@@ -5240,13 +5252,13 @@
         <v>43672</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M64" s="7">
         <v>129</v>
@@ -5255,13 +5267,13 @@
         <v>108693</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5288,13 @@
         <v>32624</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H65" s="7">
         <v>26</v>
@@ -5291,13 +5303,13 @@
         <v>19301</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M65" s="7">
         <v>63</v>
@@ -5306,13 +5318,13 @@
         <v>51925</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5339,13 @@
         <v>20248</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H66" s="7">
         <v>18</v>
@@ -5342,13 +5354,13 @@
         <v>12024</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M66" s="7">
         <v>40</v>
@@ -5357,13 +5369,13 @@
         <v>32272</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5390,13 @@
         <v>6413</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H67" s="7">
         <v>9</v>
@@ -5393,13 +5405,13 @@
         <v>6746</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M67" s="7">
         <v>17</v>
@@ -5408,13 +5420,13 @@
         <v>13159</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5441,13 @@
         <v>5982</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -5444,13 +5456,13 @@
         <v>4582</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>116</v>
+        <v>357</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="M68" s="7">
         <v>14</v>
@@ -5459,13 +5471,13 @@
         <v>10564</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>356</v>
+        <v>127</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5492,13 @@
         <v>3371</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H69" s="7">
         <v>5</v>
@@ -5495,13 +5507,13 @@
         <v>2934</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M69" s="7">
         <v>9</v>
@@ -5510,13 +5522,13 @@
         <v>6305</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5543,13 @@
         <v>1988</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5546,13 +5558,13 @@
         <v>1148</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
@@ -5561,13 +5573,13 @@
         <v>3135</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5594,13 @@
         <v>160</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -5597,13 +5609,13 @@
         <v>1967</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
@@ -5612,13 +5624,13 @@
         <v>2127</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,7 +5651,7 @@
         <v>55</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -5648,13 +5660,13 @@
         <v>571</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -5663,13 +5675,13 @@
         <v>571</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5696,13 @@
         <v>1766</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5705,7 +5717,7 @@
         <v>55</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5714,13 +5726,13 @@
         <v>1766</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5747,13 @@
         <v>1097</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5756,7 +5768,7 @@
         <v>55</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5765,13 +5777,13 @@
         <v>1097</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5798,13 @@
         <v>138669</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H75" s="7">
         <v>129</v>
@@ -5801,13 +5813,13 @@
         <v>92945</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M75" s="7">
         <v>284</v>
@@ -5816,18 +5828,18 @@
         <v>231614</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5839,13 +5851,13 @@
         <v>102954</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>379</v>
+        <v>157</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H76" s="7">
         <v>134</v>
@@ -5854,13 +5866,13 @@
         <v>104996</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M76" s="7">
         <v>232</v>
@@ -5869,13 +5881,13 @@
         <v>207950</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5902,13 @@
         <v>96379</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H77" s="7">
         <v>128</v>
@@ -5905,13 +5917,13 @@
         <v>89100</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M77" s="7">
         <v>222</v>
@@ -5920,13 +5932,13 @@
         <v>185479</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5953,13 @@
         <v>105380</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H78" s="7">
         <v>155</v>
@@ -5956,13 +5968,13 @@
         <v>108506</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M78" s="7">
         <v>251</v>
@@ -5971,13 +5983,13 @@
         <v>213885</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6004,13 @@
         <v>26815</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H79" s="7">
         <v>22</v>
@@ -6007,13 +6019,13 @@
         <v>17286</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M79" s="7">
         <v>45</v>
@@ -6022,13 +6034,13 @@
         <v>44101</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6055,13 @@
         <v>4469</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>412</v>
+        <v>53</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H80" s="7">
         <v>6</v>
@@ -6058,13 +6070,13 @@
         <v>4813</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M80" s="7">
         <v>9</v>
@@ -6073,13 +6085,13 @@
         <v>9283</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>417</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6112,7 @@
         <v>55</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
@@ -6109,13 +6121,13 @@
         <v>1632</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
@@ -6124,13 +6136,13 @@
         <v>1632</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,7 +6163,7 @@
         <v>50</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>372</v>
+        <v>107</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -6166,7 +6178,7 @@
         <v>50</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M82" s="7">
         <v>2</v>
@@ -6175,13 +6187,13 @@
         <v>1706</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>133</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6214,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -6211,13 +6223,13 @@
         <v>711</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -6226,13 +6238,13 @@
         <v>711</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,7 +6265,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6283,7 +6295,7 @@
         <v>55</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,7 +6316,7 @@
         <v>55</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -6334,7 +6346,7 @@
         <v>55</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6367,7 @@
         <v>55</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -6385,7 +6397,7 @@
         <v>55</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6412,13 @@
         <v>337037</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H87" s="7">
         <v>450</v>
@@ -6415,13 +6427,13 @@
         <v>327711</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M87" s="7">
         <v>765</v>
@@ -6430,18 +6442,18 @@
         <v>664748</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6453,13 +6465,13 @@
         <v>226962</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H88" s="7">
         <v>139</v>
@@ -6468,13 +6480,13 @@
         <v>118953</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M88" s="7">
         <v>330</v>
@@ -6483,13 +6495,13 @@
         <v>345914</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6516,13 @@
         <v>150686</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H89" s="7">
         <v>92</v>
@@ -6519,13 +6531,13 @@
         <v>83930</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M89" s="7">
         <v>174</v>
@@ -6534,13 +6546,13 @@
         <v>234615</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6567,13 @@
         <v>80580</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>445</v>
+        <v>239</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H90" s="7">
         <v>81</v>
@@ -6570,13 +6582,13 @@
         <v>67710</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M90" s="7">
         <v>146</v>
@@ -6585,13 +6597,13 @@
         <v>148290</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6618,13 @@
         <v>27806</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>246</v>
+        <v>456</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H91" s="7">
         <v>30</v>
@@ -6621,13 +6633,13 @@
         <v>25190</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M91" s="7">
         <v>58</v>
@@ -6636,13 +6648,13 @@
         <v>52996</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6669,13 @@
         <v>16836</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="H92" s="7">
         <v>18</v>
@@ -6672,13 +6684,13 @@
         <v>13762</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>462</v>
+        <v>54</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M92" s="7">
         <v>34</v>
@@ -6687,13 +6699,13 @@
         <v>30598</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6720,13 @@
         <v>740</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>468</v>
+        <v>172</v>
       </c>
       <c r="H93" s="7">
         <v>13</v>
@@ -6723,13 +6735,13 @@
         <v>16336</v>
       </c>
       <c r="J93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L93" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M93" s="7">
         <v>14</v>
@@ -6738,13 +6750,13 @@
         <v>17076</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6771,13 @@
         <v>1101</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -6774,7 +6786,7 @@
         <v>2178</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>184</v>
+        <v>471</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>128</v>
@@ -6795,7 +6807,7 @@
         <v>474</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6828,7 @@
         <v>55</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6831,7 +6843,7 @@
         <v>55</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -6846,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,7 +6879,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -6882,7 +6894,7 @@
         <v>55</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6897,7 +6909,7 @@
         <v>55</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6930,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -6933,7 +6945,7 @@
         <v>55</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M97" s="7">
         <v>0</v>
@@ -6948,7 +6960,7 @@
         <v>55</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,7 +6981,7 @@
         <v>55</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -6984,7 +6996,7 @@
         <v>55</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -6999,7 +7011,7 @@
         <v>55</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7026,13 @@
         <v>504710</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H99" s="7">
         <v>376</v>
@@ -7029,13 +7041,13 @@
         <v>328058</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M99" s="7">
         <v>760</v>
@@ -7044,13 +7056,13 @@
         <v>832768</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7079,13 @@
         <v>654994</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H100" s="7">
         <v>594</v>
@@ -7082,13 +7094,13 @@
         <v>482832</v>
       </c>
       <c r="J100" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="L100" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M100" s="7">
         <v>1183</v>
@@ -7097,13 +7109,13 @@
         <v>1137826</v>
       </c>
       <c r="O100" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P100" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P100" s="7" t="s">
+      <c r="Q100" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7130,13 @@
         <v>525163</v>
       </c>
       <c r="E101" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H101" s="7">
         <v>520</v>
@@ -7133,13 +7145,13 @@
         <v>390291</v>
       </c>
       <c r="J101" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="L101" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M101" s="7">
         <v>964</v>
@@ -7148,13 +7160,13 @@
         <v>915453</v>
       </c>
       <c r="O101" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P101" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P101" s="7" t="s">
+      <c r="Q101" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q101" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,7 +7187,7 @@
         <v>495</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>334</v>
+        <v>496</v>
       </c>
       <c r="H102" s="7">
         <v>647</v>
@@ -7184,13 +7196,13 @@
         <v>432100</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M102" s="7">
         <v>1099</v>
@@ -7199,13 +7211,13 @@
         <v>893741</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>78</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7232,13 @@
         <v>115082</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H103" s="7">
         <v>153</v>
@@ -7235,13 +7247,13 @@
         <v>105307</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M103" s="7">
         <v>265</v>
@@ -7250,13 +7262,13 @@
         <v>220389</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7283,13 @@
         <v>51836</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>197</v>
+        <v>511</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>509</v>
+        <v>243</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="H104" s="7">
         <v>55</v>
@@ -7286,13 +7298,13 @@
         <v>40078</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M104" s="7">
         <v>106</v>
@@ -7301,13 +7313,13 @@
         <v>91914</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7334,13 @@
         <v>12852</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>259</v>
+        <v>516</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="H105" s="7">
         <v>36</v>
@@ -7337,13 +7349,13 @@
         <v>32692</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>14</v>
+        <v>518</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M105" s="7">
         <v>48</v>
@@ -7352,13 +7364,13 @@
         <v>45544</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>129</v>
+        <v>520</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>56</v>
+        <v>425</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7385,13 @@
         <v>5371</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="H106" s="7">
         <v>10</v>
@@ -7388,13 +7400,13 @@
         <v>6628</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>518</v>
+        <v>172</v>
       </c>
       <c r="M106" s="7">
         <v>15</v>
@@ -7403,13 +7415,13 @@
         <v>12000</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>520</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7436,13 @@
         <v>3578</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="H107" s="7">
         <v>9</v>
@@ -7439,13 +7451,13 @@
         <v>6030</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>366</v>
+        <v>524</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="M107" s="7">
         <v>14</v>
@@ -7454,13 +7466,13 @@
         <v>9609</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>522</v>
+        <v>266</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>315</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,7 +7493,7 @@
         <v>55</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H108" s="7">
         <v>8</v>
@@ -7490,13 +7502,13 @@
         <v>5386</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="M108" s="7">
         <v>8</v>
@@ -7505,10 +7517,10 @@
         <v>5386</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>522</v>
+        <v>266</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>313</v>
+        <v>525</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>49</v>
@@ -7526,13 +7538,13 @@
         <v>2644</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>58</v>
+        <v>473</v>
       </c>
       <c r="H109" s="7">
         <v>3</v>
@@ -7541,13 +7553,13 @@
         <v>2149</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="M109" s="7">
         <v>6</v>
@@ -7556,13 +7568,13 @@
         <v>4793</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>49</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7589,13 @@
         <v>4917</v>
       </c>
       <c r="E110" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="G110" s="7" t="s">
-        <v>526</v>
+        <v>120</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -7592,13 +7604,13 @@
         <v>804</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
       <c r="M110" s="7">
         <v>5</v>
@@ -7607,13 +7619,13 @@
         <v>5721</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>262</v>
+        <v>530</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>115</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7640,13 @@
         <v>1838078</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H111" s="7">
         <v>2036</v>
@@ -7643,13 +7655,13 @@
         <v>1504298</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M111" s="7">
         <v>3713</v>
@@ -7658,18 +7670,18 @@
         <v>3342376</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86E0351-7633-4BCE-810A-582D4F56E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EA77F1-189E-4085-BB6D-C55BCC9141D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4481757-7001-4C26-A485-7402F0E64BBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DE231A9-739E-4ACD-913F-3D17D0B83CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="530">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -68,1567 +68,1561 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2043,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719FEDE3-2FE5-47EB-878A-55B28FD41732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E124136-8566-40F8-9AF2-2771B05F6B18}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2164,7 +2158,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>4560</v>
+        <v>5382</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -2179,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>4002</v>
+        <v>4220</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -2194,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>8562</v>
+        <v>9602</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -2215,7 +2209,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="7">
-        <v>56110</v>
+        <v>67797</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2230,7 +2224,7 @@
         <v>84</v>
       </c>
       <c r="I5" s="7">
-        <v>44015</v>
+        <v>47468</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2245,7 +2239,7 @@
         <v>151</v>
       </c>
       <c r="N5" s="7">
-        <v>100125</v>
+        <v>115265</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -2266,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="7">
-        <v>91982</v>
+        <v>109120</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2281,7 +2275,7 @@
         <v>134</v>
       </c>
       <c r="I6" s="7">
-        <v>72807</v>
+        <v>77767</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -2296,7 +2290,7 @@
         <v>246</v>
       </c>
       <c r="N6" s="7">
-        <v>164790</v>
+        <v>186887</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -2317,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>6760</v>
+        <v>7866</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2332,7 +2326,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>13647</v>
+        <v>14440</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2347,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>20407</v>
+        <v>22306</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -2368,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2850</v>
+        <v>3321</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -2383,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -2398,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>3268</v>
+        <v>3757</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>52</v>
@@ -2521,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2551,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -2725,7 +2719,7 @@
         <v>202</v>
       </c>
       <c r="D15" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>63</v>
@@ -2740,7 +2734,7 @@
         <v>257</v>
       </c>
       <c r="I15" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>63</v>
@@ -2755,7 +2749,7 @@
         <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>63</v>
@@ -2778,7 +2772,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>123360</v>
+        <v>121189</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>65</v>
@@ -2793,7 +2787,7 @@
         <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>90512</v>
+        <v>84188</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>68</v>
@@ -2808,7 +2802,7 @@
         <v>198</v>
       </c>
       <c r="N16" s="7">
-        <v>213872</v>
+        <v>205377</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>71</v>
@@ -2829,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>73993</v>
+        <v>75677</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -2844,7 +2838,7 @@
         <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>38912</v>
+        <v>36650</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -2859,7 +2853,7 @@
         <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>112905</v>
+        <v>112328</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>80</v>
@@ -2880,46 +2874,46 @@
         <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>25040</v>
+        <v>25036</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>28222</v>
+        <v>26336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>53262</v>
+        <v>51372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,46 +2925,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>14002</v>
+        <v>14147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>12344</v>
+        <v>11496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>26346</v>
+        <v>25643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,46 +2976,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>5386</v>
+        <v>5411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4805</v>
+        <v>4459</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>10191</v>
+        <v>9869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,46 +3027,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1411</v>
+        <v>1324</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>801</v>
+        <v>767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>2212</v>
+        <v>2091</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,46 +3078,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1243</v>
+        <v>1158</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>742</v>
+        <v>677</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1984</v>
+        <v>1835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,37 +3138,37 @@
         <v>55</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,37 +3189,37 @@
         <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,37 +3240,37 @@
         <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,10 +3282,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2895</v>
+        <v>2799</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>50</v>
@@ -3303,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>50</v>
@@ -3318,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>3699</v>
+        <v>3570</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>133</v>
@@ -3327,7 +3321,7 @@
         <v>50</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3333,7 @@
         <v>173</v>
       </c>
       <c r="D27" s="7">
-        <v>247330</v>
+        <v>246741</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>63</v>
@@ -3354,7 +3348,7 @@
         <v>215</v>
       </c>
       <c r="I27" s="7">
-        <v>179914</v>
+        <v>168068</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -3369,7 +3363,7 @@
         <v>388</v>
       </c>
       <c r="N27" s="7">
-        <v>427244</v>
+        <v>414810</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>63</v>
@@ -3383,7 +3377,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3392,46 +3386,46 @@
         <v>75</v>
       </c>
       <c r="D28" s="7">
-        <v>76840</v>
+        <v>76373</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
       </c>
       <c r="I28" s="7">
-        <v>57301</v>
+        <v>53957</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
       </c>
       <c r="N28" s="7">
-        <v>134141</v>
+        <v>130330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,46 +3437,46 @@
         <v>31</v>
       </c>
       <c r="D29" s="7">
-        <v>30766</v>
+        <v>30086</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
       </c>
       <c r="I29" s="7">
-        <v>25975</v>
+        <v>24535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
       </c>
       <c r="N29" s="7">
-        <v>56741</v>
+        <v>54620</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,46 +3488,46 @@
         <v>31</v>
       </c>
       <c r="D30" s="7">
-        <v>29815</v>
+        <v>29021</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
       </c>
       <c r="I30" s="7">
-        <v>23493</v>
+        <v>22056</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
       </c>
       <c r="N30" s="7">
-        <v>53307</v>
+        <v>51077</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,46 +3539,46 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>4826</v>
+        <v>4673</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
       </c>
       <c r="I31" s="7">
-        <v>9247</v>
+        <v>8678</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
       </c>
       <c r="N31" s="7">
-        <v>14072</v>
+        <v>13351</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,46 +3590,46 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>2583</v>
+        <v>2465</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>4370</v>
+        <v>4179</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>6953</v>
+        <v>6644</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,46 +3641,46 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1809</v>
+        <v>1736</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
       </c>
       <c r="I33" s="7">
-        <v>2721</v>
+        <v>2538</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
       </c>
       <c r="N33" s="7">
-        <v>4530</v>
+        <v>4275</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,37 +3701,37 @@
         <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,16 +3743,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>2721</v>
+        <v>2613</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3773,22 +3767,22 @@
         <v>55</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>2721</v>
+        <v>2613</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,37 +3803,37 @@
         <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
       </c>
       <c r="I36" s="7">
-        <v>3342</v>
+        <v>3103</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>3342</v>
+        <v>3103</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,46 +3845,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>878</v>
+        <v>826</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>1275</v>
+        <v>1181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>2153</v>
+        <v>2007</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>50</v>
@@ -3926,22 +3920,22 @@
         <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,7 +3947,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>63</v>
@@ -3968,7 +3962,7 @@
         <v>169</v>
       </c>
       <c r="I39" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>63</v>
@@ -3983,7 +3977,7 @@
         <v>321</v>
       </c>
       <c r="N39" s="7">
-        <v>279556</v>
+        <v>269543</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>63</v>
@@ -3997,7 +3991,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -4006,46 +4000,46 @@
         <v>25</v>
       </c>
       <c r="D40" s="7">
-        <v>29671</v>
+        <v>30170</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
       </c>
       <c r="I40" s="7">
-        <v>42655</v>
+        <v>63440</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
       </c>
       <c r="N40" s="7">
-        <v>72326</v>
+        <v>93611</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,46 +4051,46 @@
         <v>35</v>
       </c>
       <c r="D41" s="7">
-        <v>47116</v>
+        <v>45359</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7">
         <v>52</v>
       </c>
       <c r="I41" s="7">
-        <v>58523</v>
+        <v>109128</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>87</v>
       </c>
       <c r="N41" s="7">
-        <v>105638</v>
+        <v>154486</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,46 +4102,46 @@
         <v>45</v>
       </c>
       <c r="D42" s="7">
-        <v>62618</v>
+        <v>58655</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
       </c>
       <c r="I42" s="7">
-        <v>63830</v>
+        <v>58017</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
       </c>
       <c r="N42" s="7">
-        <v>126448</v>
+        <v>116672</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,46 +4153,46 @@
         <v>9</v>
       </c>
       <c r="D43" s="7">
-        <v>16753</v>
+        <v>16555</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <v>16</v>
       </c>
       <c r="I43" s="7">
-        <v>12366</v>
+        <v>11478</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M43" s="7">
         <v>25</v>
       </c>
       <c r="N43" s="7">
-        <v>29119</v>
+        <v>28033</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,46 +4204,46 @@
         <v>7</v>
       </c>
       <c r="D44" s="7">
-        <v>9505</v>
+        <v>9404</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>4910</v>
+        <v>4430</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
       </c>
       <c r="N44" s="7">
-        <v>14415</v>
+        <v>13833</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,46 +4255,46 @@
         <v>4</v>
       </c>
       <c r="D45" s="7">
-        <v>5520</v>
+        <v>5305</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
       </c>
       <c r="I45" s="7">
-        <v>8108</v>
+        <v>7499</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
       </c>
       <c r="N45" s="7">
-        <v>13629</v>
+        <v>12804</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,37 +4315,37 @@
         <v>55</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>1225</v>
+        <v>1148</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1225</v>
+        <v>1148</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,37 +4366,37 @@
         <v>55</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
       </c>
       <c r="I47" s="7">
-        <v>2250</v>
+        <v>2063</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>2250</v>
+        <v>2063</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>51</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,37 +4417,37 @@
         <v>55</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,7 +4468,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4504,7 +4498,7 @@
         <v>55</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4519,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4555,7 +4549,7 @@
         <v>55</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,7 +4561,7 @@
         <v>125</v>
       </c>
       <c r="D51" s="7">
-        <v>171183</v>
+        <v>165447</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>63</v>
@@ -4582,7 +4576,7 @@
         <v>201</v>
       </c>
       <c r="I51" s="7">
-        <v>194545</v>
+        <v>257833</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>63</v>
@@ -4597,7 +4591,7 @@
         <v>326</v>
       </c>
       <c r="N51" s="7">
-        <v>365728</v>
+        <v>423280</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>63</v>
@@ -4611,7 +4605,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4620,46 +4614,46 @@
         <v>31</v>
       </c>
       <c r="D52" s="7">
-        <v>25627</v>
+        <v>23248</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H52" s="7">
         <v>32</v>
       </c>
       <c r="I52" s="7">
-        <v>20741</v>
+        <v>18429</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M52" s="7">
         <v>63</v>
       </c>
       <c r="N52" s="7">
-        <v>46368</v>
+        <v>41677</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,46 +4665,46 @@
         <v>52</v>
       </c>
       <c r="D53" s="7">
-        <v>37489</v>
+        <v>34332</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H53" s="7">
         <v>58</v>
       </c>
       <c r="I53" s="7">
-        <v>30535</v>
+        <v>27385</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M53" s="7">
         <v>110</v>
       </c>
       <c r="N53" s="7">
-        <v>68024</v>
+        <v>61717</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,46 +4716,46 @@
         <v>64</v>
       </c>
       <c r="D54" s="7">
-        <v>45978</v>
+        <v>42041</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H54" s="7">
         <v>120</v>
       </c>
       <c r="I54" s="7">
-        <v>55509</v>
+        <v>50657</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M54" s="7">
         <v>184</v>
       </c>
       <c r="N54" s="7">
-        <v>101487</v>
+        <v>92698</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,46 +4767,46 @@
         <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>11706</v>
+        <v>10734</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="H55" s="7">
         <v>22</v>
       </c>
       <c r="I55" s="7">
-        <v>8482</v>
+        <v>7876</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M55" s="7">
         <v>39</v>
       </c>
       <c r="N55" s="7">
-        <v>20188</v>
+        <v>18611</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,46 +4818,46 @@
         <v>7</v>
       </c>
       <c r="D56" s="7">
-        <v>4227</v>
+        <v>3883</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H56" s="7">
         <v>6</v>
       </c>
       <c r="I56" s="7">
-        <v>2417</v>
+        <v>2213</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
       </c>
       <c r="N56" s="7">
-        <v>6644</v>
+        <v>6096</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,37 +4878,37 @@
         <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4929,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4950,7 +4944,7 @@
         <v>55</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4965,7 +4959,7 @@
         <v>55</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4980,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -5001,7 +4995,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -5016,7 +5010,7 @@
         <v>55</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +5031,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5052,7 +5046,7 @@
         <v>55</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -5067,7 +5061,7 @@
         <v>55</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5082,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5103,7 +5097,7 @@
         <v>55</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -5118,7 +5112,7 @@
         <v>55</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5133,7 @@
         <v>55</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5154,7 +5148,7 @@
         <v>55</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5169,7 +5163,7 @@
         <v>55</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5175,7 @@
         <v>171</v>
       </c>
       <c r="D63" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>63</v>
@@ -5196,7 +5190,7 @@
         <v>239</v>
       </c>
       <c r="I63" s="7">
-        <v>117843</v>
+        <v>106720</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>63</v>
@@ -5211,7 +5205,7 @@
         <v>410</v>
       </c>
       <c r="N63" s="7">
-        <v>242870</v>
+        <v>220959</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>63</v>
@@ -5225,7 +5219,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -5234,46 +5228,46 @@
         <v>71</v>
       </c>
       <c r="D64" s="7">
-        <v>65021</v>
+        <v>64033</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H64" s="7">
         <v>58</v>
       </c>
       <c r="I64" s="7">
-        <v>43672</v>
+        <v>40656</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M64" s="7">
         <v>129</v>
       </c>
       <c r="N64" s="7">
-        <v>108693</v>
+        <v>104690</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,46 +5279,46 @@
         <v>37</v>
       </c>
       <c r="D65" s="7">
-        <v>32624</v>
+        <v>31701</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H65" s="7">
         <v>26</v>
       </c>
       <c r="I65" s="7">
-        <v>19301</v>
+        <v>17929</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M65" s="7">
         <v>63</v>
       </c>
       <c r="N65" s="7">
-        <v>51925</v>
+        <v>49630</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,46 +5330,46 @@
         <v>22</v>
       </c>
       <c r="D66" s="7">
-        <v>20248</v>
+        <v>19393</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H66" s="7">
         <v>18</v>
       </c>
       <c r="I66" s="7">
-        <v>12024</v>
+        <v>11153</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="M66" s="7">
         <v>40</v>
       </c>
       <c r="N66" s="7">
-        <v>32272</v>
+        <v>30546</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,46 +5381,46 @@
         <v>8</v>
       </c>
       <c r="D67" s="7">
-        <v>6413</v>
+        <v>6142</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H67" s="7">
         <v>9</v>
       </c>
       <c r="I67" s="7">
-        <v>6746</v>
+        <v>6240</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M67" s="7">
         <v>17</v>
       </c>
       <c r="N67" s="7">
-        <v>13159</v>
+        <v>12382</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,46 +5432,46 @@
         <v>7</v>
       </c>
       <c r="D68" s="7">
-        <v>5982</v>
+        <v>5739</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
       </c>
       <c r="I68" s="7">
-        <v>4582</v>
+        <v>4282</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M68" s="7">
         <v>14</v>
       </c>
       <c r="N68" s="7">
-        <v>10564</v>
+        <v>10021</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,46 +5483,46 @@
         <v>4</v>
       </c>
       <c r="D69" s="7">
-        <v>3371</v>
+        <v>3205</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>361</v>
+        <v>132</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H69" s="7">
         <v>5</v>
       </c>
       <c r="I69" s="7">
-        <v>2934</v>
+        <v>2704</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M69" s="7">
         <v>9</v>
       </c>
       <c r="N69" s="7">
-        <v>6305</v>
+        <v>5910</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,46 +5534,46 @@
         <v>2</v>
       </c>
       <c r="D70" s="7">
-        <v>1988</v>
+        <v>1915</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>367</v>
+        <v>120</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
       </c>
       <c r="I70" s="7">
-        <v>1148</v>
+        <v>1065</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
       </c>
       <c r="N70" s="7">
-        <v>3135</v>
+        <v>2980</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,46 +5585,46 @@
         <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
       </c>
       <c r="I71" s="7">
-        <v>1967</v>
+        <v>1832</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
       </c>
       <c r="N71" s="7">
-        <v>2127</v>
+        <v>1995</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,37 +5645,37 @@
         <v>55</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
       </c>
       <c r="I72" s="7">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>120</v>
+        <v>373</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
       </c>
       <c r="N72" s="7">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,16 +5687,16 @@
         <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>1766</v>
+        <v>1683</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5717,22 +5711,22 @@
         <v>55</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
       </c>
       <c r="N73" s="7">
-        <v>1766</v>
+        <v>1683</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>379</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,16 +5738,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5768,22 +5762,22 @@
         <v>55</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5789,7 @@
         <v>155</v>
       </c>
       <c r="D75" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>63</v>
@@ -5810,7 +5804,7 @@
         <v>129</v>
       </c>
       <c r="I75" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>63</v>
@@ -5825,7 +5819,7 @@
         <v>284</v>
       </c>
       <c r="N75" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>63</v>
@@ -5839,7 +5833,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
@@ -5848,46 +5842,46 @@
         <v>98</v>
       </c>
       <c r="D76" s="7">
-        <v>102954</v>
+        <v>105646</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>157</v>
+        <v>381</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H76" s="7">
         <v>134</v>
       </c>
       <c r="I76" s="7">
-        <v>104996</v>
+        <v>97831</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>387</v>
+        <v>228</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M76" s="7">
         <v>232</v>
       </c>
       <c r="N76" s="7">
-        <v>207950</v>
+        <v>203477</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,46 +5893,46 @@
         <v>94</v>
       </c>
       <c r="D77" s="7">
-        <v>96379</v>
+        <v>93952</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H77" s="7">
         <v>128</v>
       </c>
       <c r="I77" s="7">
-        <v>89100</v>
+        <v>83518</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M77" s="7">
         <v>222</v>
       </c>
       <c r="N77" s="7">
-        <v>185479</v>
+        <v>177470</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,46 +5944,46 @@
         <v>96</v>
       </c>
       <c r="D78" s="7">
-        <v>105380</v>
+        <v>103939</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H78" s="7">
         <v>155</v>
       </c>
       <c r="I78" s="7">
-        <v>108506</v>
+        <v>102590</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M78" s="7">
         <v>251</v>
       </c>
       <c r="N78" s="7">
-        <v>213885</v>
+        <v>206528</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,46 +5995,46 @@
         <v>23</v>
       </c>
       <c r="D79" s="7">
-        <v>26815</v>
+        <v>26438</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>240</v>
+        <v>405</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H79" s="7">
         <v>22</v>
       </c>
       <c r="I79" s="7">
-        <v>17286</v>
+        <v>16180</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M79" s="7">
         <v>45</v>
       </c>
       <c r="N79" s="7">
-        <v>44101</v>
+        <v>42618</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,46 +6046,46 @@
         <v>3</v>
       </c>
       <c r="D80" s="7">
-        <v>4469</v>
+        <v>4521</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>416</v>
+        <v>300</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>53</v>
+        <v>411</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H80" s="7">
         <v>6</v>
       </c>
       <c r="I80" s="7">
-        <v>4813</v>
+        <v>4491</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M80" s="7">
         <v>9</v>
       </c>
       <c r="N80" s="7">
-        <v>9283</v>
+        <v>9013</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>420</v>
+        <v>122</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,37 +6106,37 @@
         <v>55</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
       </c>
       <c r="I81" s="7">
-        <v>1632</v>
+        <v>1522</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>422</v>
+        <v>253</v>
       </c>
       <c r="M81" s="7">
         <v>3</v>
       </c>
       <c r="N81" s="7">
-        <v>1632</v>
+        <v>1522</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="7">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>49</v>
@@ -6163,37 +6157,37 @@
         <v>50</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>107</v>
+        <v>419</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
       </c>
       <c r="I82" s="7">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M82" s="7">
         <v>2</v>
       </c>
       <c r="N82" s="7">
-        <v>1706</v>
+        <v>1609</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>122</v>
+        <v>421</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,37 +6208,37 @@
         <v>55</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
       </c>
       <c r="I83" s="7">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
       </c>
       <c r="N83" s="7">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,7 +6259,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6280,7 +6274,7 @@
         <v>55</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="M84" s="7">
         <v>0</v>
@@ -6295,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6310,7 @@
         <v>55</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -6331,7 +6325,7 @@
         <v>55</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -6346,7 +6340,7 @@
         <v>55</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6361,7 @@
         <v>55</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -6382,7 +6376,7 @@
         <v>55</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -6397,7 +6391,7 @@
         <v>55</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,7 +6403,7 @@
         <v>315</v>
       </c>
       <c r="D87" s="7">
-        <v>337037</v>
+        <v>335486</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>63</v>
@@ -6424,7 +6418,7 @@
         <v>450</v>
       </c>
       <c r="I87" s="7">
-        <v>327711</v>
+        <v>307415</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>63</v>
@@ -6439,7 +6433,7 @@
         <v>765</v>
       </c>
       <c r="N87" s="7">
-        <v>664748</v>
+        <v>642900</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>63</v>
@@ -6453,7 +6447,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B88" s="5">
         <v>10</v>
@@ -6462,46 +6456,46 @@
         <v>191</v>
       </c>
       <c r="D88" s="7">
-        <v>226962</v>
+        <v>191393</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H88" s="7">
         <v>139</v>
       </c>
       <c r="I88" s="7">
-        <v>118953</v>
+        <v>98399</v>
       </c>
       <c r="J88" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M88" s="7">
         <v>330</v>
       </c>
       <c r="N88" s="7">
-        <v>345914</v>
+        <v>289792</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,46 +6507,46 @@
         <v>82</v>
       </c>
       <c r="D89" s="7">
-        <v>150686</v>
+        <v>328681</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H89" s="7">
         <v>92</v>
       </c>
       <c r="I89" s="7">
-        <v>83930</v>
+        <v>69463</v>
       </c>
       <c r="J89" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="L89" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M89" s="7">
         <v>174</v>
       </c>
       <c r="N89" s="7">
-        <v>234615</v>
+        <v>398144</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P89" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="Q89" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6558,13 @@
         <v>65</v>
       </c>
       <c r="D90" s="7">
-        <v>80580</v>
+        <v>67797</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>448</v>
@@ -6579,31 +6573,31 @@
         <v>81</v>
       </c>
       <c r="I90" s="7">
-        <v>67710</v>
+        <v>56434</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K90" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="L90" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M90" s="7">
         <v>146</v>
       </c>
       <c r="N90" s="7">
-        <v>148290</v>
+        <v>124231</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P90" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="Q90" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,43 +6609,43 @@
         <v>28</v>
       </c>
       <c r="D91" s="7">
-        <v>27806</v>
+        <v>23504</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H91" s="7">
         <v>30</v>
       </c>
       <c r="I91" s="7">
-        <v>25190</v>
+        <v>21266</v>
       </c>
       <c r="J91" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="L91" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M91" s="7">
         <v>58</v>
       </c>
       <c r="N91" s="7">
-        <v>52996</v>
+        <v>44770</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>237</v>
+        <v>460</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="Q91" s="7" t="s">
         <v>461</v>
@@ -6666,46 +6660,46 @@
         <v>16</v>
       </c>
       <c r="D92" s="7">
-        <v>16836</v>
+        <v>14183</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>462</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H92" s="7">
         <v>18</v>
       </c>
       <c r="I92" s="7">
-        <v>13762</v>
+        <v>11492</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>464</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>54</v>
+        <v>465</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M92" s="7">
         <v>34</v>
       </c>
       <c r="N92" s="7">
-        <v>30598</v>
+        <v>25676</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>466</v>
+        <v>199</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,46 +6711,46 @@
         <v>1</v>
       </c>
       <c r="D93" s="7">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="H93" s="7">
         <v>13</v>
       </c>
       <c r="I93" s="7">
-        <v>16336</v>
+        <v>13043</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M93" s="7">
         <v>14</v>
       </c>
       <c r="N93" s="7">
-        <v>17076</v>
+        <v>13677</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>425</v>
+        <v>110</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,46 +6762,46 @@
         <v>1</v>
       </c>
       <c r="D94" s="7">
-        <v>1101</v>
+        <v>933</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>426</v>
+        <v>262</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>427</v>
+        <v>57</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
       </c>
       <c r="I94" s="7">
-        <v>2178</v>
+        <v>1913</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M94" s="7">
         <v>4</v>
       </c>
       <c r="N94" s="7">
-        <v>3279</v>
+        <v>2847</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>473</v>
+        <v>194</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>474</v>
+        <v>308</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6822,7 @@
         <v>55</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6843,7 +6837,7 @@
         <v>55</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -6858,7 +6852,7 @@
         <v>55</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,7 +6873,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -6894,7 +6888,7 @@
         <v>55</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6909,7 +6903,7 @@
         <v>55</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6924,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -6945,7 +6939,7 @@
         <v>55</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="M97" s="7">
         <v>0</v>
@@ -6960,7 +6954,7 @@
         <v>55</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +6975,7 @@
         <v>55</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -6996,7 +6990,7 @@
         <v>55</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -7011,7 +7005,7 @@
         <v>55</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,7 +7017,7 @@
         <v>384</v>
       </c>
       <c r="D99" s="7">
-        <v>504710</v>
+        <v>627126</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>63</v>
@@ -7038,7 +7032,7 @@
         <v>376</v>
       </c>
       <c r="I99" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>63</v>
@@ -7053,7 +7047,7 @@
         <v>760</v>
       </c>
       <c r="N99" s="7">
-        <v>832768</v>
+        <v>899137</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>63</v>
@@ -7076,46 +7070,46 @@
         <v>589</v>
       </c>
       <c r="D100" s="7">
-        <v>654994</v>
+        <v>617434</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H100" s="7">
         <v>594</v>
       </c>
       <c r="I100" s="7">
-        <v>482832</v>
+        <v>461122</v>
       </c>
       <c r="J100" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="K100" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="L100" s="7" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="M100" s="7">
         <v>1183</v>
       </c>
       <c r="N100" s="7">
-        <v>1137826</v>
+        <v>1078556</v>
       </c>
       <c r="O100" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q100" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,46 +7121,46 @@
         <v>444</v>
       </c>
       <c r="D101" s="7">
-        <v>525163</v>
+        <v>707585</v>
       </c>
       <c r="E101" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H101" s="7">
         <v>520</v>
       </c>
       <c r="I101" s="7">
-        <v>390291</v>
+        <v>416076</v>
       </c>
       <c r="J101" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L101" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M101" s="7">
         <v>964</v>
       </c>
       <c r="N101" s="7">
-        <v>915453</v>
+        <v>1123662</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,46 +7172,46 @@
         <v>452</v>
       </c>
       <c r="D102" s="7">
-        <v>461641</v>
+        <v>455001</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H102" s="7">
         <v>647</v>
       </c>
       <c r="I102" s="7">
-        <v>432100</v>
+        <v>405010</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M102" s="7">
         <v>1099</v>
       </c>
       <c r="N102" s="7">
-        <v>893741</v>
+        <v>860011</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,46 +7223,46 @@
         <v>112</v>
       </c>
       <c r="D103" s="7">
-        <v>115082</v>
+        <v>110058</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H103" s="7">
         <v>153</v>
       </c>
       <c r="I103" s="7">
-        <v>105307</v>
+        <v>97655</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>196</v>
+        <v>504</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M103" s="7">
         <v>265</v>
       </c>
       <c r="N103" s="7">
-        <v>220389</v>
+        <v>207713</v>
       </c>
       <c r="O103" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q103" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q103" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,46 +7274,46 @@
         <v>51</v>
       </c>
       <c r="D104" s="7">
-        <v>51836</v>
+        <v>48927</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H104" s="7">
         <v>55</v>
       </c>
       <c r="I104" s="7">
-        <v>40078</v>
+        <v>35983</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>382</v>
+        <v>177</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>258</v>
+        <v>511</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>513</v>
+        <v>242</v>
       </c>
       <c r="M104" s="7">
         <v>106</v>
       </c>
       <c r="N104" s="7">
-        <v>91914</v>
+        <v>84909</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>127</v>
+        <v>512</v>
       </c>
       <c r="P104" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q104" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,46 +7325,46 @@
         <v>12</v>
       </c>
       <c r="D105" s="7">
-        <v>12852</v>
+        <v>12205</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="H105" s="7">
         <v>36</v>
       </c>
       <c r="I105" s="7">
-        <v>32692</v>
+        <v>28234</v>
       </c>
       <c r="J105" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K105" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="L105" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M105" s="7">
         <v>48</v>
       </c>
       <c r="N105" s="7">
-        <v>45544</v>
+        <v>40439</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>520</v>
+        <v>419</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>202</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7376,46 @@
         <v>5</v>
       </c>
       <c r="D106" s="7">
-        <v>5371</v>
+        <v>4997</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>521</v>
+        <v>421</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>471</v>
+        <v>355</v>
       </c>
       <c r="H106" s="7">
         <v>10</v>
       </c>
       <c r="I106" s="7">
-        <v>6628</v>
+        <v>6056</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="M106" s="7">
         <v>15</v>
       </c>
       <c r="N106" s="7">
-        <v>12000</v>
+        <v>11053</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>522</v>
+        <v>194</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,43 +7427,43 @@
         <v>5</v>
       </c>
       <c r="D107" s="7">
-        <v>3578</v>
+        <v>3492</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H107" s="7">
         <v>9</v>
       </c>
       <c r="I107" s="7">
-        <v>6030</v>
+        <v>5672</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>126</v>
+        <v>522</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="M107" s="7">
         <v>14</v>
       </c>
       <c r="N107" s="7">
-        <v>9609</v>
+        <v>9163</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>521</v>
+        <v>124</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>266</v>
+        <v>523</v>
       </c>
       <c r="Q107" s="7" t="s">
         <v>47</v>
@@ -7493,37 +7487,37 @@
         <v>55</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="H108" s="7">
         <v>8</v>
       </c>
       <c r="I108" s="7">
-        <v>5386</v>
+        <v>5041</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>522</v>
+        <v>411</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>313</v>
+        <v>524</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>471</v>
+        <v>373</v>
       </c>
       <c r="M108" s="7">
         <v>8</v>
       </c>
       <c r="N108" s="7">
-        <v>5386</v>
+        <v>5041</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P108" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q108" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="Q108" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,46 +7529,46 @@
         <v>3</v>
       </c>
       <c r="D109" s="7">
-        <v>2644</v>
+        <v>2509</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>313</v>
+        <v>523</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H109" s="7">
         <v>3</v>
       </c>
       <c r="I109" s="7">
-        <v>2149</v>
+        <v>2024</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>313</v>
+        <v>524</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>527</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>316</v>
+        <v>526</v>
       </c>
       <c r="M109" s="7">
         <v>6</v>
       </c>
       <c r="N109" s="7">
-        <v>4793</v>
+        <v>4532</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>313</v>
+        <v>523</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,46 +7580,46 @@
         <v>4</v>
       </c>
       <c r="D110" s="7">
-        <v>4917</v>
+        <v>4774</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>529</v>
+        <v>189</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>525</v>
+        <v>308</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
       </c>
       <c r="I110" s="7">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M110" s="7">
         <v>5</v>
       </c>
       <c r="N110" s="7">
-        <v>5721</v>
+        <v>5546</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>516</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7631,7 @@
         <v>1677</v>
       </c>
       <c r="D111" s="7">
-        <v>1838078</v>
+        <v>1966982</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>63</v>
@@ -7652,7 +7646,7 @@
         <v>2036</v>
       </c>
       <c r="I111" s="7">
-        <v>1504298</v>
+        <v>1463643</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>63</v>
@@ -7667,7 +7661,7 @@
         <v>3713</v>
       </c>
       <c r="N111" s="7">
-        <v>3342376</v>
+        <v>3430626</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>63</v>
@@ -7681,7 +7675,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
